--- a/workspace/resources/testSheet.xlsx
+++ b/workspace/resources/testSheet.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\editor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\editor\eclipse-workspace\s2\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Functional Testing" sheetId="2" r:id="rId2"/>
+    <sheet name="Usability Testing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="124">
   <si>
     <t>Test no</t>
   </si>
@@ -359,24 +361,6 @@
     <t>To evaluate product and/or hardware to determine if it can handle projected load volumes.</t>
   </si>
   <si>
-    <t>How to do Performance testing? By Manual Testing or by Automation</t>
-  </si>
-  <si>
-    <t>Practically it is not possible to do the Performance Testing manually because of some drawbacks like:</t>
-  </si>
-  <si>
-    <t>More number of resources will be required.</t>
-  </si>
-  <si>
-    <t>Simultaneous actions are not possible.</t>
-  </si>
-  <si>
-    <t>Proper system monitoring is not available.</t>
-  </si>
-  <si>
-    <t>Not easy to perform the repetitive task.</t>
-  </si>
-  <si>
     <t>Performance Testing</t>
   </si>
   <si>
@@ -384,6 +368,36 @@
   </si>
   <si>
     <t>use typosaurus and other api's to check spelling mistakes</t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>Contact form not working</t>
+  </si>
+  <si>
+    <t>Prices are not visble yet</t>
+  </si>
+  <si>
+    <t>Checked broken links</t>
+  </si>
+  <si>
+    <t>Not defined yet</t>
+  </si>
+  <si>
+    <t>NA yet</t>
+  </si>
+  <si>
+    <t>Not working yet</t>
+  </si>
+  <si>
+    <t>will checked by backend developer later</t>
+  </si>
+  <si>
+    <t>will checked Rohit Shakya after the completion of site</t>
+  </si>
+  <si>
+    <t>UAT</t>
   </si>
 </sst>
 </file>
@@ -399,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,13 +478,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +799,7 @@
         <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -808,7 +831,7 @@
         <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1632,7 +1655,9 @@
       <c r="B77" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
@@ -1641,7 +1666,9 @@
       <c r="B78" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
@@ -1650,7 +1677,9 @@
       <c r="B79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="4"/>
+      <c r="C79" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
@@ -1659,7 +1688,9 @@
       <c r="B80" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
@@ -1668,7 +1699,9 @@
       <c r="B81" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
@@ -1677,7 +1710,9 @@
       <c r="B82" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
@@ -1686,7 +1721,9 @@
       <c r="B83" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -1695,7 +1732,9 @@
       <c r="B84" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -1704,7 +1743,9 @@
       <c r="B85" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
@@ -1713,7 +1754,9 @@
       <c r="B86" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
@@ -1722,7 +1765,9 @@
       <c r="B87" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="4"/>
+      <c r="C87" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -1731,7 +1776,9 @@
       <c r="B88" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
@@ -1740,7 +1787,9 @@
       <c r="B89" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
@@ -1749,7 +1798,9 @@
       <c r="B90" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
@@ -1758,7 +1809,9 @@
       <c r="B91" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
@@ -1767,7 +1820,9 @@
       <c r="B92" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -1777,7 +1832,7 @@
         <v>105</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1787,7 +1842,9 @@
       <c r="B94" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C94" s="5"/>
+      <c r="C94" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -1796,7 +1853,9 @@
       <c r="B95" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C95" s="5"/>
+      <c r="C95" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
@@ -1805,7 +1864,9 @@
       <c r="B96" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C96" s="5"/>
+      <c r="C96" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
@@ -1814,7 +1875,9 @@
       <c r="B97" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="5"/>
+      <c r="C97" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
@@ -1823,49 +1886,992 @@
       <c r="B98" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C98" s="5"/>
+      <c r="C98" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" s="5"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="A1:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="119.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="5"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="5"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="162.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
